--- a/data/top_200_eth_addresses_20210507.xlsx
+++ b/data/top_200_eth_addresses_20210507.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2019-10-25 17:00:07</t>
+          <t>2021-05-02 19:36:30</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2019-12-11 15:53:53</t>
+          <t>2021-04-20 14:35:11</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2020-07-08 16:01:17</t>
+          <t>2021-04-29 01:41:09</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2021-03-04 19:29:23</t>
+          <t>2021-05-03 07:13:07</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2019-02-09 22:34:23</t>
+          <t>2021-02-27 22:13:37</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2019-01-26 03:28:48</t>
+          <t>2021-03-04 14:03:33</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2020-08-25 21:42:57</t>
+          <t>2021-04-29 11:08:10</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2018-12-09 09:53:54</t>
+          <t>2021-05-05 06:41:56</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2020-01-28 19:12:10</t>
+          <t>2021-04-08 23:04:44</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2021-03-16 21:11:29</t>
+          <t>2021-05-06 06:27:00</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2019-12-17 04:03:25</t>
+          <t>2021-05-05 19:54:59</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2020-02-25 21:07:00</t>
+          <t>2021-04-11 01:37:33</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2019-12-21 00:51:16</t>
+          <t>2021-05-05 07:41:58</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2020-02-06 22:16:31</t>
+          <t>2020-02-19 15:27:28</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2019-12-15 21:55:18</t>
+          <t>2021-04-16 18:28:59</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2019-09-18 14:49:57</t>
+          <t>2021-05-04 13:32:16</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2021-01-28 21:56:23</t>
+          <t>2021-05-01 20:13:04</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2020-10-04 20:10:17</t>
+          <t>2021-05-05 19:16:24</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2021-02-27 23:15:34</t>
+          <t>2021-05-06 11:23:50</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2018-10-11 10:08:56</t>
+          <t>2021-05-01 10:50:07</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2019-10-05 22:19:53</t>
+          <t>2020-11-13 23:16:08</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2019-08-04 15:46:51</t>
+          <t>2021-04-17 11:48:20</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2018-09-17 09:12:11</t>
+          <t>2021-05-02 08:51:26</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2020-07-20 18:38:29</t>
+          <t>2021-04-18 20:19:53</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2020-11-06 14:31:04</t>
+          <t>2021-04-08 02:45:21</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2020-07-12 13:54:44</t>
+          <t>2021-05-01 20:39:55</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2021-04-11 00:32:46</t>
+          <t>2021-04-24 04:08:31</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2020-10-06 14:48:05</t>
+          <t>2021-04-30 19:03:15</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2020-04-17 23:11:22</t>
+          <t>2021-04-10 19:28:44</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2020-03-14 04:07:57</t>
+          <t>2021-04-25 19:42:46</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2020-12-20 09:42:30</t>
+          <t>2021-04-26 02:45:35</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2020-08-23 03:59:05</t>
+          <t>2021-05-03 07:01:36</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2018-07-24 03:35:48</t>
+          <t>2021-04-17 00:09:06</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2019-09-01 22:55:50</t>
+          <t>2021-04-28 10:19:44</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2020-11-01 07:32:44</t>
+          <t>2021-05-04 22:33:24</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2020-05-29 22:43:39</t>
+          <t>2020-12-27 17:23:15</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2020-09-28 16:11:46</t>
+          <t>2021-04-29 22:14:03</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2018-04-28 16:50:23</t>
+          <t>2021-04-11 06:35:20</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2020-09-10 09:21:34</t>
+          <t>2021-04-21 22:56:54</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2019-08-24 22:48:28</t>
+          <t>2021-05-01 05:17:01</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2019-08-26 15:40:59</t>
+          <t>2020-08-14 16:47:08</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2018-04-05 05:45:18</t>
+          <t>2020-04-30 12:05:11</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2021-01-22 22:21:46</t>
+          <t>2021-03-17 15:30:56</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2021-01-13 05:12:45</t>
+          <t>2021-05-05 22:33:46</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2019-09-18 07:20:18</t>
+          <t>2021-05-05 13:16:38</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2018-05-01 21:16:01</t>
+          <t>2021-04-15 20:11:18</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2020-05-25 04:23:08</t>
+          <t>2021-04-19 18:38:58</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2021-02-13 01:42:19</t>
+          <t>2021-04-28 23:33:51</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2020-08-23 19:52:55</t>
+          <t>2021-04-28 10:24:16</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2020-12-19 08:15:34</t>
+          <t>2021-05-05 08:41:39</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2021-02-25 00:21:38</t>
+          <t>2021-04-28 20:15:36</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2020-10-15 22:54:58</t>
+          <t>2021-04-11 16:48:25</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2019-08-19 14:24:51</t>
+          <t>2021-05-05 19:38:02</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2020-01-07 20:55:31</t>
+          <t>2021-05-05 19:03:30</t>
         </is>
       </c>
     </row>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2019-03-11 14:43:35</t>
+          <t>2020-03-31 09:19:13</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2018-07-25 15:18:37</t>
+          <t>2021-03-21 21:58:30</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2021-03-26 21:12:32</t>
+          <t>2021-05-06 03:27:21</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2021-02-26 22:20:57</t>
+          <t>2021-05-02 20:33:44</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2019-06-30 05:25:52</t>
+          <t>2021-05-06 05:37:09</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2020-02-18 18:43:50</t>
+          <t>2021-05-06 13:38:50</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2019-03-28 12:23:47</t>
+          <t>2021-04-15 21:46:53</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2021-02-16 17:28:39</t>
+          <t>2021-05-05 14:18:08</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2020-04-06 20:42:29</t>
+          <t>2021-02-19 02:56:47</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2020-02-26 20:53:53</t>
+          <t>2021-01-04 21:58:59</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2019-07-25 22:23:54</t>
+          <t>2021-02-27 18:33:01</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2019-02-01 03:04:30</t>
+          <t>2021-03-28 03:45:29</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2019-12-26 19:47:52</t>
+          <t>2021-03-08 12:44:03</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2020-09-24 03:58:35</t>
+          <t>2021-04-28 19:11:21</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2019-09-04 15:56:47</t>
+          <t>2021-05-02 19:10:04</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2019-12-13 23:56:08</t>
+          <t>2021-04-06 23:09:39</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2020-01-21 11:32:23</t>
+          <t>2021-04-19 16:22:56</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2019-03-28 04:54:36</t>
+          <t>2021-04-11 19:19:06</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2019-08-14 07:12:30</t>
+          <t>2020-03-31 21:47:57</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2019-04-13 00:06:45</t>
+          <t>2021-04-19 23:58:24</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2019-09-26 14:37:16</t>
+          <t>2021-04-28 03:50:01</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2020-12-19 12:18:23</t>
+          <t>2021-04-28 08:45:06</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2020-11-29 19:15:59</t>
+          <t>2021-03-25 10:12:54</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2020-12-10 12:51:59</t>
+          <t>2021-05-06 10:40:26</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2020-03-15 14:52:35</t>
+          <t>2020-12-04 07:50:40</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2020-12-23 21:42:20</t>
+          <t>2021-05-02 20:19:43</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2019-04-18 16:25:39</t>
+          <t>2021-03-19 18:15:36</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2020-10-17 08:19:47</t>
+          <t>2021-05-02 23:16:29</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2021-02-13 14:01:47</t>
+          <t>2021-03-29 13:11:48</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2018-12-13 06:52:15</t>
+          <t>2021-04-27 23:12:11</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2018-10-30 21:46:48</t>
+          <t>2021-04-28 10:53:40</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2021-01-19 17:51:26</t>
+          <t>2021-05-06 13:29:01</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2020-10-25 00:08:06</t>
+          <t>2021-03-27 13:03:11</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2020-10-02 01:33:52</t>
+          <t>2021-05-02 11:27:16</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2019-08-20 12:41:19</t>
+          <t>2020-02-23 16:13:28</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2019-04-30 19:29:09</t>
+          <t>2021-05-04 17:43:14</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2019-08-02 09:46:13</t>
+          <t>2021-04-30 05:07:55</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2020-08-09 13:21:20</t>
+          <t>2021-05-04 04:59:44</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2020-03-24 01:09:06</t>
+          <t>2021-04-11 15:44:45</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>2020-03-11 23:39:44</t>
+          <t>2021-04-10 19:43:49</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2019-01-12 16:20:57</t>
+          <t>2021-03-28 08:34:44</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>2020-12-05 06:24:23</t>
+          <t>2021-05-03 09:28:37</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2020-11-12 01:43:11</t>
+          <t>2021-03-24 14:22:29</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2020-12-30 22:29:13</t>
+          <t>2021-05-05 23:40:03</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2019-05-12 19:27:07</t>
+          <t>2021-04-16 22:40:18</t>
         </is>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>2020-09-01 10:56:55</t>
+          <t>2021-04-14 10:15:11</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>2018-09-23 10:56:36</t>
+          <t>2021-04-27 23:27:27</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>2019-02-22 17:14:25</t>
+          <t>2021-05-01 22:01:26</t>
         </is>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>2020-04-07 14:59:03</t>
+          <t>2021-05-05 07:38:30</t>
         </is>
       </c>
     </row>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>2019-05-08 10:48:24</t>
+          <t>2020-07-23 10:43:00</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>2019-04-10 22:41:59</t>
+          <t>2021-04-03 23:58:29</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>2020-11-02 20:10:23</t>
+          <t>2021-05-03 08:23:03</t>
         </is>
       </c>
     </row>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>2019-04-02 16:24:56</t>
+          <t>2021-05-05 22:29:18</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>2020-08-25 01:01:22</t>
+          <t>2021-04-23 16:13:44</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>2020-07-21 17:11:26</t>
+          <t>2021-04-30 01:58:15</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>2019-04-24 19:50:07</t>
+          <t>2021-03-04 04:37:39</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>2020-03-19 16:52:39</t>
+          <t>2021-04-10 20:12:24</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>2019-01-28 06:01:49</t>
+          <t>2021-05-05 10:21:28</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>2020-05-02 16:50:26</t>
+          <t>2021-04-22 12:00:43</t>
         </is>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>2020-02-16 15:42:57</t>
+          <t>2021-04-04 16:43:16</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>2019-02-12 00:45:06</t>
+          <t>2021-05-06 06:53:08</t>
         </is>
       </c>
     </row>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>2020-09-11 06:02:28</t>
+          <t>2021-04-24 19:09:42</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>2019-08-27 16:18:31</t>
+          <t>2021-04-18 00:57:56</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>2019-11-28 17:33:20</t>
+          <t>2020-10-24 21:12:37</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>2019-11-14 12:30:59</t>
+          <t>2021-04-10 13:19:02</t>
         </is>
       </c>
     </row>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>2018-04-06 20:10:32</t>
+          <t>2021-04-26 21:51:42</t>
         </is>
       </c>
     </row>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>2020-04-12 01:37:22</t>
+          <t>2021-05-06 03:50:25</t>
         </is>
       </c>
     </row>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>2019-02-23 00:09:17</t>
+          <t>2021-05-02 21:45:30</t>
         </is>
       </c>
     </row>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>2020-06-30 17:30:44</t>
+          <t>2021-03-25 05:25:38</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2020-10-05 14:54:29</t>
+          <t>2021-03-14 00:22:35</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>2019-04-10 19:25:19</t>
+          <t>2021-03-31 19:01:31</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2019-02-03 03:38:37</t>
+          <t>2021-04-27 01:33:40</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>2020-12-06 20:41:32</t>
+          <t>2021-03-25 02:40:30</t>
         </is>
       </c>
     </row>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>2019-07-08 00:32:01</t>
+          <t>2021-04-18 12:18:51</t>
         </is>
       </c>
     </row>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>2019-12-18 09:42:44</t>
+          <t>2021-03-31 10:38:48</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>2021-02-18 22:21:52</t>
+          <t>2021-05-01 10:37:19</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>2021-04-10 17:31:53</t>
+          <t>2021-04-11 04:51:47</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>2020-01-19 23:13:57</t>
+          <t>2021-05-05 23:31:34</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>2020-02-22 08:11:56</t>
+          <t>2021-03-07 20:01:57</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>2021-02-28 04:51:19</t>
+          <t>2021-05-06 09:37:24</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>2021-02-25 04:31:00</t>
+          <t>2021-04-13 05:53:58</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>2019-03-30 22:06:24</t>
+          <t>2021-05-04 16:30:14</t>
         </is>
       </c>
     </row>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>2019-10-03 12:35:37</t>
+          <t>2021-04-30 19:34:50</t>
         </is>
       </c>
     </row>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>2019-03-20 21:05:29</t>
+          <t>2021-04-28 13:33:03</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>2021-03-10 04:34:03</t>
+          <t>2021-05-03 13:20:42</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>2020-03-03 05:34:58</t>
+          <t>2021-04-24 22:18:01</t>
         </is>
       </c>
     </row>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>2020-09-23 00:36:58</t>
+          <t>2021-04-11 01:03:53</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>2020-12-16 22:46:32</t>
+          <t>2021-04-29 07:06:39</t>
         </is>
       </c>
     </row>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>2020-02-21 15:49:58</t>
+          <t>2021-04-26 19:28:00</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>2019-02-18 07:50:27</t>
+          <t>2021-03-05 07:12:10</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>2020-07-31 17:36:51</t>
+          <t>2021-04-21 14:59:43</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>2019-08-04 22:46:46</t>
+          <t>2021-04-29 21:48:42</t>
         </is>
       </c>
     </row>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>2018-06-22 12:11:36</t>
+          <t>2021-04-28 15:58:59</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>2021-02-12 09:06:47</t>
+          <t>2021-04-18 09:04:09</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>2019-11-23 00:48:00</t>
+          <t>2020-08-29 01:13:16</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>2020-11-01 07:57:27</t>
+          <t>2021-03-22 08:22:41</t>
         </is>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>2021-04-11 15:15:47</t>
+          <t>2021-05-06 14:30:55</t>
         </is>
       </c>
     </row>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>2019-01-01 00:14:28</t>
+          <t>2021-04-23 22:19:09</t>
         </is>
       </c>
     </row>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>2018-10-31 13:31:06</t>
+          <t>2021-04-22 16:07:32</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>2019-04-03 07:53:21</t>
+          <t>2021-05-03 08:33:58</t>
         </is>
       </c>
     </row>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>2021-02-14 21:22:50</t>
+          <t>2021-04-28 21:35:09</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>2020-04-12 04:54:55</t>
+          <t>2020-10-30 22:20:19</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>2020-09-30 14:22:10</t>
+          <t>2021-04-09 00:00:55</t>
         </is>
       </c>
     </row>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>2021-03-17 17:44:22</t>
+          <t>2021-04-28 20:34:01</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>2020-05-09 20:46:28</t>
+          <t>2021-04-17 00:35:32</t>
         </is>
       </c>
     </row>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>2019-07-13 07:34:05</t>
+          <t>2021-05-05 14:45:07</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>2019-07-18 17:51:47</t>
+          <t>2020-10-25 22:36:38</t>
         </is>
       </c>
     </row>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>2019-08-19 18:17:58</t>
+          <t>2020-12-27 17:12:17</t>
         </is>
       </c>
     </row>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>2020-10-11 23:41:58</t>
+          <t>2021-03-20 16:54:31</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>2020-04-27 22:42:49</t>
+          <t>2021-05-04 08:54:59</t>
         </is>
       </c>
     </row>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>2021-03-18 13:50:40</t>
+          <t>2021-05-06 00:50:45</t>
         </is>
       </c>
     </row>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>2020-03-14 19:15:48</t>
+          <t>2021-04-11 22:29:58</t>
         </is>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>2021-03-07 18:58:26</t>
+          <t>2021-03-22 07:38:35</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>2020-09-06 13:59:47</t>
+          <t>2021-05-05 22:39:57</t>
         </is>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>2018-07-22 11:39:07</t>
+          <t>2021-04-17 22:59:37</t>
         </is>
       </c>
     </row>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>2018-07-31 04:48:30</t>
+          <t>2021-03-31 22:12:22</t>
         </is>
       </c>
     </row>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>2021-03-04 12:43:35</t>
+          <t>2021-04-16 00:10:20</t>
         </is>
       </c>
     </row>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>2019-08-25 20:54:31</t>
+          <t>2021-04-19 17:27:34</t>
         </is>
       </c>
     </row>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>2019-02-01 23:10:10</t>
+          <t>2021-05-02 00:01:51</t>
         </is>
       </c>
     </row>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>2019-09-04 18:55:05</t>
+          <t>2021-05-04 16:11:20</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>2019-04-12 20:30:50</t>
+          <t>2021-04-25 06:48:45</t>
         </is>
       </c>
     </row>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2020-03-15 07:41:19</t>
+          <t>2021-05-03 00:54:43</t>
         </is>
       </c>
     </row>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>2018-10-27 18:37:10</t>
+          <t>2020-06-04 09:52:06</t>
         </is>
       </c>
     </row>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>2019-09-12 04:28:01</t>
+          <t>2021-05-03 01:28:40</t>
         </is>
       </c>
     </row>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>2019-09-02 06:53:29</t>
+          <t>2021-04-25 21:37:09</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>2021-03-17 15:50:00</t>
+          <t>2021-05-06 14:24:18</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>2020-12-11 17:26:13</t>
+          <t>2021-05-06 05:17:11</t>
         </is>
       </c>
     </row>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>2020-06-19 14:29:16</t>
+          <t>2020-10-14 20:53:22</t>
         </is>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>2018-07-26 16:57:25</t>
+          <t>2020-11-24 20:40:02</t>
         </is>
       </c>
     </row>
@@ -7682,7 +7682,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>2019-01-01 00:09:00</t>
+          <t>2021-04-13 00:00:59</t>
         </is>
       </c>
     </row>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>2018-11-29 23:05:35</t>
+          <t>2021-04-29 22:24:44</t>
         </is>
       </c>
     </row>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>2020-09-19 22:22:34</t>
+          <t>2021-05-05 14:16:03</t>
         </is>
       </c>
     </row>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>2021-03-21 10:25:08</t>
+          <t>2021-05-02 05:22:43</t>
         </is>
       </c>
     </row>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>2021-03-17 23:21:04</t>
+          <t>2021-05-06 01:19:27</t>
         </is>
       </c>
     </row>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>2019-12-23 19:41:15</t>
+          <t>2021-05-05 21:53:03</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>2021-04-04 02:46:32</t>
+          <t>2021-05-04 04:11:30</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>2021-03-10 17:21:25</t>
+          <t>2021-04-19 22:27:14</t>
         </is>
       </c>
     </row>
@@ -7990,7 +7990,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>2020-01-22 08:43:04</t>
+          <t>2021-04-16 10:30:43</t>
         </is>
       </c>
     </row>
@@ -8030,7 +8030,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>2019-05-14 16:31:06</t>
+          <t>2021-05-06 04:59:47</t>
         </is>
       </c>
     </row>
@@ -8070,7 +8070,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>2020-09-30 21:50:55</t>
+          <t>2021-02-11 10:15:02</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>2020-10-02 02:51:39</t>
+          <t>2021-02-15 07:24:29</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>2020-12-05 22:06:04</t>
+          <t>2021-04-07 15:49:20</t>
         </is>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>2020-07-10 05:26:01</t>
+          <t>2021-01-21 04:35:41</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>2019-04-05 22:26:39</t>
+          <t>2021-04-09 10:00:06</t>
         </is>
       </c>
     </row>
@@ -8262,7 +8262,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>2019-11-12 03:27:07</t>
+          <t>2021-04-16 00:01:57</t>
         </is>
       </c>
     </row>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>2020-06-15 09:48:09</t>
+          <t>2020-12-11 00:09:43</t>
         </is>
       </c>
     </row>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>2020-03-04 02:39:29</t>
+          <t>2021-02-22 20:58:55</t>
         </is>
       </c>
     </row>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>2020-11-24 22:13:43</t>
+          <t>2021-04-29 08:44:45</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>2021-01-16 22:30:57</t>
+          <t>2021-05-05 18:15:29</t>
         </is>
       </c>
     </row>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>2018-04-14 17:31:58</t>
+          <t>2021-03-06 23:26:31</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>2020-10-27 02:37:52</t>
+          <t>2020-10-31 04:02:10</t>
         </is>
       </c>
     </row>
